--- a/politicians.xlsx
+++ b/politicians.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\yagmuridil\Documents\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:20001_{4EB52DD5-92DE-4D03-8FF0-47B1962CBB23}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:20001_{3F067757-F69A-49E0-A60C-DEE99BBC15B6}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="15110" windowHeight="6160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -408,9 +408,6 @@
     <t>SteveDaines</t>
   </si>
   <si>
-    <t>Twitter hande</t>
-  </si>
-  <si>
     <t>politican last</t>
   </si>
   <si>
@@ -970,6 +967,9 @@
   </si>
   <si>
     <t>GeorgeHWBush</t>
+  </si>
+  <si>
+    <t>Twitter</t>
   </si>
 </sst>
 </file>
@@ -1325,18 +1325,16 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0000-0000-0000-000000000000}">
   <dimension ref="A1:F110"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C106" sqref="C106"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
+        <v>315</v>
+      </c>
+      <c r="B1" t="s">
         <v>128</v>
-      </c>
-      <c r="B1" t="s">
-        <v>129</v>
       </c>
       <c r="C1" t="s">
         <v>0</v>
@@ -1356,10 +1354,10 @@
         <v>32</v>
       </c>
       <c r="B2" t="s">
+        <v>129</v>
+      </c>
+      <c r="C2" t="s">
         <v>130</v>
-      </c>
-      <c r="C2" t="s">
-        <v>131</v>
       </c>
       <c r="D2" t="s">
         <v>24</v>
@@ -1373,10 +1371,10 @@
         <v>33</v>
       </c>
       <c r="B3" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="C3" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="D3" t="s">
         <v>24</v>
@@ -1390,10 +1388,10 @@
         <v>34</v>
       </c>
       <c r="B4" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="C4" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="D4" t="s">
         <v>24</v>
@@ -1407,10 +1405,10 @@
         <v>35</v>
       </c>
       <c r="B5" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="C5" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="D5" t="s">
         <v>24</v>
@@ -1424,10 +1422,10 @@
         <v>36</v>
       </c>
       <c r="B6" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="C6" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="D6" t="s">
         <v>24</v>
@@ -1441,10 +1439,10 @@
         <v>37</v>
       </c>
       <c r="B7" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="C7" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="D7" t="s">
         <v>24</v>
@@ -1455,13 +1453,13 @@
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A8" s="1" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="B8" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="C8" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="D8" t="s">
         <v>24</v>
@@ -1475,10 +1473,10 @@
         <v>38</v>
       </c>
       <c r="B9" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="C9" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="D9" t="s">
         <v>24</v>
@@ -1492,10 +1490,10 @@
         <v>39</v>
       </c>
       <c r="B10" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="C10" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="D10" t="s">
         <v>24</v>
@@ -1509,10 +1507,10 @@
         <v>40</v>
       </c>
       <c r="B11" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="C11" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="D11" t="s">
         <v>24</v>
@@ -1526,10 +1524,10 @@
         <v>41</v>
       </c>
       <c r="B12" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="C12" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="D12" t="s">
         <v>24</v>
@@ -1543,7 +1541,7 @@
         <v>27</v>
       </c>
       <c r="B13" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="C13" t="s">
         <v>26</v>
@@ -1560,10 +1558,10 @@
         <v>42</v>
       </c>
       <c r="B14" t="s">
+        <v>155</v>
+      </c>
+      <c r="C14" t="s">
         <v>156</v>
-      </c>
-      <c r="C14" t="s">
-        <v>157</v>
       </c>
       <c r="D14" t="s">
         <v>24</v>
@@ -1577,10 +1575,10 @@
         <v>43</v>
       </c>
       <c r="B15" t="s">
+        <v>157</v>
+      </c>
+      <c r="C15" t="s">
         <v>158</v>
-      </c>
-      <c r="C15" t="s">
-        <v>159</v>
       </c>
       <c r="D15" t="s">
         <v>24</v>
@@ -1594,10 +1592,10 @@
         <v>44</v>
       </c>
       <c r="B16" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="C16" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="D16" t="s">
         <v>24</v>
@@ -1611,10 +1609,10 @@
         <v>45</v>
       </c>
       <c r="B17" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="C17" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="D17" t="s">
         <v>24</v>
@@ -1628,10 +1626,10 @@
         <v>46</v>
       </c>
       <c r="B18" t="s">
+        <v>159</v>
+      </c>
+      <c r="C18" t="s">
         <v>160</v>
-      </c>
-      <c r="C18" t="s">
-        <v>161</v>
       </c>
       <c r="D18" t="s">
         <v>24</v>
@@ -1645,10 +1643,10 @@
         <v>47</v>
       </c>
       <c r="B19" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="C19" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="D19" t="s">
         <v>24</v>
@@ -1662,10 +1660,10 @@
         <v>48</v>
       </c>
       <c r="B20" t="s">
+        <v>163</v>
+      </c>
+      <c r="C20" t="s">
         <v>164</v>
-      </c>
-      <c r="C20" t="s">
-        <v>165</v>
       </c>
       <c r="D20" t="s">
         <v>24</v>
@@ -1679,10 +1677,10 @@
         <v>49</v>
       </c>
       <c r="B21" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="C21" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="D21" t="s">
         <v>24</v>
@@ -1696,10 +1694,10 @@
         <v>50</v>
       </c>
       <c r="B22" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="C22" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="D22" t="s">
         <v>24</v>
@@ -1713,10 +1711,10 @@
         <v>51</v>
       </c>
       <c r="B23" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="C23" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="D23" t="s">
         <v>24</v>
@@ -1730,10 +1728,10 @@
         <v>52</v>
       </c>
       <c r="B24" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="C24" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="D24" t="s">
         <v>24</v>
@@ -1747,10 +1745,10 @@
         <v>53</v>
       </c>
       <c r="B25" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="C25" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="D25" t="s">
         <v>24</v>
@@ -1764,10 +1762,10 @@
         <v>54</v>
       </c>
       <c r="B26" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="C26" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="D26" t="s">
         <v>24</v>
@@ -1781,16 +1779,16 @@
         <v>55</v>
       </c>
       <c r="B27" t="s">
+        <v>178</v>
+      </c>
+      <c r="C27" t="s">
         <v>179</v>
       </c>
-      <c r="C27" t="s">
+      <c r="D27" t="s">
+        <v>24</v>
+      </c>
+      <c r="E27" t="s">
         <v>180</v>
-      </c>
-      <c r="D27" t="s">
-        <v>24</v>
-      </c>
-      <c r="E27" t="s">
-        <v>181</v>
       </c>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.35">
@@ -1798,10 +1796,10 @@
         <v>56</v>
       </c>
       <c r="B28" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="C28" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="D28" t="s">
         <v>24</v>
@@ -1815,10 +1813,10 @@
         <v>57</v>
       </c>
       <c r="B29" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="C29" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="D29" t="s">
         <v>24</v>
@@ -1832,10 +1830,10 @@
         <v>58</v>
       </c>
       <c r="B30" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="C30" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="D30" t="s">
         <v>24</v>
@@ -1849,10 +1847,10 @@
         <v>59</v>
       </c>
       <c r="B31" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="C31" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="D31" t="s">
         <v>24</v>
@@ -1866,10 +1864,10 @@
         <v>60</v>
       </c>
       <c r="B32" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="C32" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="D32" t="s">
         <v>24</v>
@@ -1883,10 +1881,10 @@
         <v>61</v>
       </c>
       <c r="B33" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="C33" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="D33" t="s">
         <v>24</v>
@@ -1900,10 +1898,10 @@
         <v>62</v>
       </c>
       <c r="B34" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="C34" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="D34" t="s">
         <v>24</v>
@@ -1917,10 +1915,10 @@
         <v>63</v>
       </c>
       <c r="B35" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="C35" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="D35" t="s">
         <v>24</v>
@@ -1934,10 +1932,10 @@
         <v>64</v>
       </c>
       <c r="B36" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="C36" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="D36" t="s">
         <v>24</v>
@@ -1951,10 +1949,10 @@
         <v>65</v>
       </c>
       <c r="B37" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="C37" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="D37" t="s">
         <v>24</v>
@@ -1968,10 +1966,10 @@
         <v>66</v>
       </c>
       <c r="B38" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="C38" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="D38" t="s">
         <v>24</v>
@@ -1985,10 +1983,10 @@
         <v>67</v>
       </c>
       <c r="B39" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="C39" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="D39" t="s">
         <v>24</v>
@@ -2002,10 +2000,10 @@
         <v>68</v>
       </c>
       <c r="B40" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="C40" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="D40" t="s">
         <v>24</v>
@@ -2019,10 +2017,10 @@
         <v>69</v>
       </c>
       <c r="B41" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="C41" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="D41" t="s">
         <v>24</v>
@@ -2036,10 +2034,10 @@
         <v>70</v>
       </c>
       <c r="B42" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="C42" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="D42" t="s">
         <v>24</v>
@@ -2053,10 +2051,10 @@
         <v>71</v>
       </c>
       <c r="B43" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="C43" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="D43" t="s">
         <v>24</v>
@@ -2070,10 +2068,10 @@
         <v>72</v>
       </c>
       <c r="B44" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="C44" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="D44" t="s">
         <v>24</v>
@@ -2087,10 +2085,10 @@
         <v>73</v>
       </c>
       <c r="B45" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="C45" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="D45" t="s">
         <v>24</v>
@@ -2104,10 +2102,10 @@
         <v>74</v>
       </c>
       <c r="B46" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="C46" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="D46" t="s">
         <v>24</v>
@@ -2121,10 +2119,10 @@
         <v>75</v>
       </c>
       <c r="B47" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="C47" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="D47" t="s">
         <v>24</v>
@@ -2138,10 +2136,10 @@
         <v>76</v>
       </c>
       <c r="B48" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="C48" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="D48" t="s">
         <v>24</v>
@@ -2155,10 +2153,10 @@
         <v>77</v>
       </c>
       <c r="B49" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="C49" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="D49" t="s">
         <v>24</v>
@@ -2172,10 +2170,10 @@
         <v>78</v>
       </c>
       <c r="B50" t="s">
+        <v>224</v>
+      </c>
+      <c r="C50" t="s">
         <v>225</v>
-      </c>
-      <c r="C50" t="s">
-        <v>226</v>
       </c>
       <c r="D50" t="s">
         <v>24</v>
@@ -2189,10 +2187,10 @@
         <v>79</v>
       </c>
       <c r="B51" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="C51" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="D51" t="s">
         <v>24</v>
@@ -2206,10 +2204,10 @@
         <v>80</v>
       </c>
       <c r="B52" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="C52" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="D52" t="s">
         <v>24</v>
@@ -2223,10 +2221,10 @@
         <v>81</v>
       </c>
       <c r="B53" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="C53" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="D53" t="s">
         <v>24</v>
@@ -2240,10 +2238,10 @@
         <v>82</v>
       </c>
       <c r="B54" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="C54" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="D54" t="s">
         <v>24</v>
@@ -2254,13 +2252,13 @@
     </row>
     <row r="55" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A55" s="1" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="B55" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="C55" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="D55" t="s">
         <v>24</v>
@@ -2274,10 +2272,10 @@
         <v>83</v>
       </c>
       <c r="B56" t="s">
+        <v>227</v>
+      </c>
+      <c r="C56" t="s">
         <v>228</v>
-      </c>
-      <c r="C56" t="s">
-        <v>229</v>
       </c>
       <c r="D56" t="s">
         <v>24</v>
@@ -2291,10 +2289,10 @@
         <v>84</v>
       </c>
       <c r="B57" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="C57" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="D57" t="s">
         <v>24</v>
@@ -2308,10 +2306,10 @@
         <v>85</v>
       </c>
       <c r="B58" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="C58" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="D58" t="s">
         <v>24</v>
@@ -2325,10 +2323,10 @@
         <v>86</v>
       </c>
       <c r="B59" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="C59" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="D59" t="s">
         <v>24</v>
@@ -2342,10 +2340,10 @@
         <v>87</v>
       </c>
       <c r="B60" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="C60" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="D60" t="s">
         <v>24</v>
@@ -2359,10 +2357,10 @@
         <v>88</v>
       </c>
       <c r="B61" t="s">
+        <v>245</v>
+      </c>
+      <c r="C61" t="s">
         <v>246</v>
-      </c>
-      <c r="C61" t="s">
-        <v>247</v>
       </c>
       <c r="D61" t="s">
         <v>24</v>
@@ -2376,10 +2374,10 @@
         <v>89</v>
       </c>
       <c r="B62" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="C62" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="D62" t="s">
         <v>24</v>
@@ -2393,10 +2391,10 @@
         <v>90</v>
       </c>
       <c r="B63" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="C63" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="D63" t="s">
         <v>24</v>
@@ -2410,10 +2408,10 @@
         <v>91</v>
       </c>
       <c r="B64" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="C64" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="D64" t="s">
         <v>24</v>
@@ -2427,10 +2425,10 @@
         <v>92</v>
       </c>
       <c r="B65" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="C65" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="D65" t="s">
         <v>24</v>
@@ -2444,10 +2442,10 @@
         <v>93</v>
       </c>
       <c r="B66" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="C66" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="D66" t="s">
         <v>24</v>
@@ -2461,10 +2459,10 @@
         <v>94</v>
       </c>
       <c r="B67" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="C67" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="D67" t="s">
         <v>24</v>
@@ -2478,10 +2476,10 @@
         <v>95</v>
       </c>
       <c r="B68" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="C68" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="D68" t="s">
         <v>24</v>
@@ -2495,10 +2493,10 @@
         <v>96</v>
       </c>
       <c r="B69" t="s">
+        <v>251</v>
+      </c>
+      <c r="C69" t="s">
         <v>252</v>
-      </c>
-      <c r="C69" t="s">
-        <v>253</v>
       </c>
       <c r="D69" t="s">
         <v>24</v>
@@ -2512,10 +2510,10 @@
         <v>97</v>
       </c>
       <c r="B70" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="C70" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="D70" t="s">
         <v>24</v>
@@ -2529,10 +2527,10 @@
         <v>98</v>
       </c>
       <c r="B71" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="C71" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="D71" t="s">
         <v>24</v>
@@ -2546,10 +2544,10 @@
         <v>99</v>
       </c>
       <c r="B72" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="C72" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="D72" t="s">
         <v>24</v>
@@ -2563,10 +2561,10 @@
         <v>100</v>
       </c>
       <c r="B73" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="C73" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="D73" t="s">
         <v>24</v>
@@ -2580,10 +2578,10 @@
         <v>101</v>
       </c>
       <c r="B74" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="C74" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="D74" t="s">
         <v>24</v>
@@ -2597,10 +2595,10 @@
         <v>102</v>
       </c>
       <c r="B75" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="C75" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="D75" t="s">
         <v>24</v>
@@ -2614,10 +2612,10 @@
         <v>103</v>
       </c>
       <c r="B76" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="C76" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="D76" t="s">
         <v>24</v>
@@ -2631,10 +2629,10 @@
         <v>104</v>
       </c>
       <c r="B77" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="C77" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="D77" t="s">
         <v>24</v>
@@ -2645,13 +2643,13 @@
     </row>
     <row r="78" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A78" s="1" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="B78" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="C78" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="D78" t="s">
         <v>24</v>
@@ -2665,10 +2663,10 @@
         <v>105</v>
       </c>
       <c r="B79" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="C79" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="D79" t="s">
         <v>24</v>
@@ -2682,10 +2680,10 @@
         <v>106</v>
       </c>
       <c r="B80" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="C80" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="D80" t="s">
         <v>24</v>
@@ -2699,10 +2697,10 @@
         <v>107</v>
       </c>
       <c r="B81" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="C81" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="D81" t="s">
         <v>24</v>
@@ -2716,10 +2714,10 @@
         <v>108</v>
       </c>
       <c r="B82" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="C82" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="D82" t="s">
         <v>24</v>
@@ -2733,10 +2731,10 @@
         <v>109</v>
       </c>
       <c r="B83" t="s">
+        <v>271</v>
+      </c>
+      <c r="C83" t="s">
         <v>272</v>
-      </c>
-      <c r="C83" t="s">
-        <v>273</v>
       </c>
       <c r="D83" t="s">
         <v>24</v>
@@ -2750,10 +2748,10 @@
         <v>110</v>
       </c>
       <c r="B84" t="s">
+        <v>274</v>
+      </c>
+      <c r="C84" t="s">
         <v>275</v>
-      </c>
-      <c r="C84" t="s">
-        <v>276</v>
       </c>
       <c r="D84" t="s">
         <v>24</v>
@@ -2767,10 +2765,10 @@
         <v>111</v>
       </c>
       <c r="B85" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="C85" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="D85" t="s">
         <v>24</v>
@@ -2784,10 +2782,10 @@
         <v>112</v>
       </c>
       <c r="B86" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="C86" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="D86" t="s">
         <v>24</v>
@@ -2810,7 +2808,7 @@
         <v>24</v>
       </c>
       <c r="E87" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
     </row>
     <row r="88" spans="1:5" x14ac:dyDescent="0.35">
@@ -2818,10 +2816,10 @@
         <v>114</v>
       </c>
       <c r="B88" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="C88" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="D88" t="s">
         <v>24</v>
@@ -2835,10 +2833,10 @@
         <v>115</v>
       </c>
       <c r="B89" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="C89" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="D89" t="s">
         <v>24</v>
@@ -2852,10 +2850,10 @@
         <v>116</v>
       </c>
       <c r="B90" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="C90" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="D90" t="s">
         <v>24</v>
@@ -2869,10 +2867,10 @@
         <v>117</v>
       </c>
       <c r="B91" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="C91" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="D91" t="s">
         <v>24</v>
@@ -2886,10 +2884,10 @@
         <v>118</v>
       </c>
       <c r="B92" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="C92" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="D92" t="s">
         <v>24</v>
@@ -2903,10 +2901,10 @@
         <v>119</v>
       </c>
       <c r="B93" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="C93" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="D93" t="s">
         <v>24</v>
@@ -2920,10 +2918,10 @@
         <v>120</v>
       </c>
       <c r="B94" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="C94" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="D94" t="s">
         <v>24</v>
@@ -2937,10 +2935,10 @@
         <v>121</v>
       </c>
       <c r="B95" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="C95" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="D95" t="s">
         <v>24</v>
@@ -2954,10 +2952,10 @@
         <v>122</v>
       </c>
       <c r="B96" t="s">
+        <v>291</v>
+      </c>
+      <c r="C96" t="s">
         <v>292</v>
-      </c>
-      <c r="C96" t="s">
-        <v>293</v>
       </c>
       <c r="D96" t="s">
         <v>24</v>
@@ -2971,10 +2969,10 @@
         <v>123</v>
       </c>
       <c r="B97" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="C97" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="D97" t="s">
         <v>24</v>
@@ -2988,10 +2986,10 @@
         <v>124</v>
       </c>
       <c r="B98" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="C98" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="D98" t="s">
         <v>24</v>
@@ -3005,10 +3003,10 @@
         <v>125</v>
       </c>
       <c r="B99" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="C99" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="D99" t="s">
         <v>24</v>
@@ -3022,10 +3020,10 @@
         <v>126</v>
       </c>
       <c r="B100" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="C100" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="D100" t="s">
         <v>24</v>
@@ -3039,10 +3037,10 @@
         <v>127</v>
       </c>
       <c r="B101" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="C101" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="D101" t="s">
         <v>24</v>
@@ -3087,7 +3085,7 @@
     </row>
     <row r="104" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A104" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="B104" t="s">
         <v>12</v>
@@ -3138,16 +3136,16 @@
     </row>
     <row r="107" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A107" s="1" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="B107" t="s">
+        <v>301</v>
+      </c>
+      <c r="C107" t="s">
+        <v>247</v>
+      </c>
+      <c r="D107" t="s">
         <v>302</v>
-      </c>
-      <c r="C107" t="s">
-        <v>248</v>
-      </c>
-      <c r="D107" t="s">
-        <v>303</v>
       </c>
       <c r="E107" t="s">
         <v>30</v>
@@ -3155,16 +3153,16 @@
     </row>
     <row r="108" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A108" s="1" t="s">
+        <v>305</v>
+      </c>
+      <c r="B108" t="s">
+        <v>303</v>
+      </c>
+      <c r="C108" t="s">
+        <v>172</v>
+      </c>
+      <c r="D108" t="s">
         <v>306</v>
-      </c>
-      <c r="B108" t="s">
-        <v>304</v>
-      </c>
-      <c r="C108" t="s">
-        <v>173</v>
-      </c>
-      <c r="D108" t="s">
-        <v>307</v>
       </c>
       <c r="E108" t="s">
         <v>29</v>
@@ -3172,16 +3170,16 @@
     </row>
     <row r="109" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A109" s="1" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="B109" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="C109" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="D109" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="E109" t="s">
         <v>30</v>
@@ -3189,16 +3187,16 @@
     </row>
     <row r="110" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A110" s="1" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="B110" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="C110" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="D110" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="E110" t="s">
         <v>29</v>
